--- a/Data/Transitions/18881917Translation.xlsx
+++ b/Data/Transitions/18881917Translation.xlsx
@@ -136,7 +136,7 @@
     <t>{69.0: 1.0}</t>
   </si>
   <si>
-    <t>{311.0: 0.023259052924791086}</t>
+    <t>{311.0: 0.023413950227830355}</t>
   </si>
   <si>
     <t>{71.0: 1.0}</t>
@@ -160,7 +160,7 @@
     <t>{77.0: 1.0}</t>
   </si>
   <si>
-    <t>{78.0: 0.8613357292602576}</t>
+    <t>{78.0: 0.8719756670814324}</t>
   </si>
   <si>
     <t>{79.0: 1.0}</t>
@@ -181,7 +181,7 @@
     <t>{85.0: 1.0}</t>
   </si>
   <si>
-    <t>{86.0: 0.832372267667963}</t>
+    <t>{86.0: 0.8323610272916248}</t>
   </si>
   <si>
     <t>{87.0: 1.0}</t>
@@ -238,7 +238,7 @@
     <t>{105.0: 1.0}</t>
   </si>
   <si>
-    <t>{543.0: 0.37660330706227785, 86.0: 0.167627732332037}</t>
+    <t>{543.0: 0.37660330706227785, 86.0: 0.16763897270837524}</t>
   </si>
   <si>
     <t>{108.0: 1.0}</t>
@@ -253,25 +253,25 @@
     <t>{139.0: 1.0}</t>
   </si>
   <si>
-    <t>{141.0: 0.03256451940662467}</t>
-  </si>
-  <si>
-    <t>{141.0: 0.9078772081380286, 762.0: 0.9384369566239015}</t>
+    <t>{141.0: 0.0324770735167452}</t>
+  </si>
+  <si>
+    <t>{141.0: 0.9079592705927964, 762.0: 0.9384369566239015}</t>
   </si>
   <si>
     <t>{142.0: 1.0}</t>
   </si>
   <si>
-    <t>{144.0: 0.9651930696915546}</t>
+    <t>{144.0: 0.9651714219077976}</t>
   </si>
   <si>
     <t>{145.0: 1.0}</t>
   </si>
   <si>
-    <t>{146.0: 0.6945303597590754}</t>
-  </si>
-  <si>
-    <t>{147.0: 0.9168485213334336}</t>
+    <t>{146.0: 0.7349950571953114}</t>
+  </si>
+  <si>
+    <t>{147.0: 0.9109445519019987}</t>
   </si>
   <si>
     <t>{148.0: 1.0}</t>
@@ -340,10 +340,10 @@
     <t>{178.0: 1.0}</t>
   </si>
   <si>
-    <t>{179.0: 1.0, 180.0: 0.031122687395578948}</t>
-  </si>
-  <si>
-    <t>{180.0: 0.925063318636872}</t>
+    <t>{179.0: 1.0, 180.0: 0.028080106910640466}</t>
+  </si>
+  <si>
+    <t>{180.0: 0.9351732379460341}</t>
   </si>
   <si>
     <t>{181.0: 1.0}</t>
@@ -352,7 +352,7 @@
     <t>{182.0: 1.0}</t>
   </si>
   <si>
-    <t>{184.0: 1.0, 171.0: 0.05526652433257668, 593.0: 0.047477041276882896}</t>
+    <t>{184.0: 1.0, 171.0: 0.05526652433257668, 593.0: 0.04736108044332734}</t>
   </si>
   <si>
     <t>{185.0: 0.9243525670149931}</t>
@@ -370,7 +370,7 @@
     <t>{205.0: 1.0}</t>
   </si>
   <si>
-    <t>{206.0: 0.8527388535031847, 785.0: 0.12581933996307887}</t>
+    <t>{206.0: 0.8527388535031847, 785.0: 0.1295359842365321}</t>
   </si>
   <si>
     <t>{207.0: 1.0}</t>
@@ -463,6 +463,9 @@
     <t>{241.0: 1.0}</t>
   </si>
   <si>
+    <t>{242.0: 1.0}</t>
+  </si>
+  <si>
     <t>{243.0: 1.0}</t>
   </si>
   <si>
@@ -520,7 +523,7 @@
     <t>{263.0: 1.0}</t>
   </si>
   <si>
-    <t>{264.0: 0.8162546562817474}</t>
+    <t>{264.0: 0.8178827951936631}</t>
   </si>
   <si>
     <t>{265.0: 0.6807426881367072}</t>
@@ -544,10 +547,10 @@
     <t>{274.0: 1.0}</t>
   </si>
   <si>
-    <t>{276.0: 0.6655472862588492}</t>
-  </si>
-  <si>
-    <t>{277.0: 0.9637501241434104, 180.0: 0.019290841734807506}</t>
+    <t>{276.0: 0.6650608980185421}</t>
+  </si>
+  <si>
+    <t>{277.0: 0.9637501241434104, 180.0: 0.03163332341347582}</t>
   </si>
   <si>
     <t>{278.0: 1.0}</t>
@@ -637,7 +640,7 @@
     <t>{310.0: 1.0, 887.0: 0.029663050782374963}</t>
   </si>
   <si>
-    <t>{311.0: 0.9767409470752089, 917.0: 0.024578971324533454}</t>
+    <t>{311.0: 0.9765860497721697, 917.0: 0.024578971324533454}</t>
   </si>
   <si>
     <t>{313.0: 1.0}</t>
@@ -661,9 +664,6 @@
     <t>{319.0: 1.0}</t>
   </si>
   <si>
-    <t>{320.0: 1.0}</t>
-  </si>
-  <si>
     <t>{321.0: 1.0}</t>
   </si>
   <si>
@@ -673,7 +673,7 @@
     <t>{399.0: 1.0}</t>
   </si>
   <si>
-    <t>{400.0: 1.0, 897.0: 0.017055178518737092}</t>
+    <t>{400.0: 1.0, 897.0: 0.016870001751211255}</t>
   </si>
   <si>
     <t>{401.0: 1.0}</t>
@@ -793,7 +793,7 @@
     <t>{475.0: 1.0}</t>
   </si>
   <si>
-    <t>{476.0: 1.0, 595.0: 0.06819795248077552}</t>
+    <t>{476.0: 1.0, 595.0: 0.0677851319451776}</t>
   </si>
   <si>
     <t>{477.0: 1.0}</t>
@@ -823,7 +823,7 @@
     <t>{485.0: 1.0}</t>
   </si>
   <si>
-    <t>{486.0: 1.0, 837.0: 0.01338007096139871}</t>
+    <t>{486.0: 1.0, 837.0: 0.013730780197846066}</t>
   </si>
   <si>
     <t>{487.0: 1.0}</t>
@@ -868,7 +868,7 @@
     <t>{501.0: 1.0}</t>
   </si>
   <si>
-    <t>{534.0: 0.23553719008264462}</t>
+    <t>{534.0: 0.22213106348066866}</t>
   </si>
   <si>
     <t>{503.0: 1.0}</t>
@@ -898,7 +898,7 @@
     <t>{533.0: 1.0}</t>
   </si>
   <si>
-    <t>{534.0: 0.4934337569518343}</t>
+    <t>{534.0: 0.5209020292831862}</t>
   </si>
   <si>
     <t>{535.0: 1.0}</t>
@@ -910,7 +910,7 @@
     <t>{538.0: 1.0}</t>
   </si>
   <si>
-    <t>{173.0: 0.1514532243415077, 185.0: 0.07564743298500681, 404.0: 0.04851045232719062, 930.0: 0.0698397178475399}</t>
+    <t>{173.0: 0.1514532243415077, 185.0: 0.07564743298500681, 404.0: 0.04851045232719062, 930.0: 0.07985944737262418}</t>
   </si>
   <si>
     <t>{540.0: 1.0}</t>
@@ -973,7 +973,7 @@
     <t>{580.0: 1.0}</t>
   </si>
   <si>
-    <t>{581.0: 1.0, 144.0: 0.034806930308445345}</t>
+    <t>{581.0: 1.0, 144.0: 0.03482857809220244}</t>
   </si>
   <si>
     <t>{582.0: 1.0}</t>
@@ -1003,13 +1003,13 @@
     <t>{592.0: 1.0}</t>
   </si>
   <si>
-    <t>{593.0: 0.7044783923693807}</t>
-  </si>
-  <si>
-    <t>{595.0: 0.6549268314805103}</t>
-  </si>
-  <si>
-    <t>{276.0: 0.3344527137411508}</t>
+    <t>{593.0: 0.7047938629038607}</t>
+  </si>
+  <si>
+    <t>{595.0: 0.6553396520161082}</t>
+  </si>
+  <si>
+    <t>{276.0: 0.33493910198145793}</t>
   </si>
   <si>
     <t>{597.0: 1.0}</t>
@@ -1033,7 +1033,7 @@
     <t>{603.0: 0.518114955053119, 617.0: 0.09849118574152624}</t>
   </si>
   <si>
-    <t>{604.0: 1.0, 837.0: 0.04255546531013551}</t>
+    <t>{604.0: 1.0, 837.0: 0.043670899958325106}</t>
   </si>
   <si>
     <t>{605.0: 1.0}</t>
@@ -1063,7 +1063,7 @@
     <t>{613.0: 1.0}</t>
   </si>
   <si>
-    <t>{615.0: 0.8586594139322689}</t>
+    <t>{615.0: 0.8586346086346086}</t>
   </si>
   <si>
     <t>{616.0: 1.0}</t>
@@ -1138,7 +1138,7 @@
     <t>{682.0: 1.0}</t>
   </si>
   <si>
-    <t>{615.0: 0.14134058606773117, 698.0: 0.023236260796453412, 751.0: 0.18454837230628152}</t>
+    <t>{615.0: 0.14136539136539136, 698.0: 0.02323803699740101, 751.0: 0.18454837230628152}</t>
   </si>
   <si>
     <t>{684.0: 1.0}</t>
@@ -1150,7 +1150,7 @@
     <t>{686.0: 1.0}</t>
   </si>
   <si>
-    <t>{687.0: 1.0, 534.0: 0.04730317529360591}</t>
+    <t>{687.0: 1.0, 534.0: 0.04461080914777971}</t>
   </si>
   <si>
     <t>{688.0: 1.0}</t>
@@ -1177,7 +1177,7 @@
     <t>{697.0: 1.0}</t>
   </si>
   <si>
-    <t>{698.0: 0.9767637392035465}</t>
+    <t>{698.0: 0.976761963002599}</t>
   </si>
   <si>
     <t>{700.0: 1.0}</t>
@@ -1216,7 +1216,7 @@
     <t>{732.0: 1.0}</t>
   </si>
   <si>
-    <t>{733.0: 1.0, 147.0: 0.08315147866656633}</t>
+    <t>{733.0: 1.0, 147.0: 0.08905544809800128}</t>
   </si>
   <si>
     <t>{888.0: 0.2845953002610966}</t>
@@ -1249,7 +1249,7 @@
     <t>{743.0: 1.0}</t>
   </si>
   <si>
-    <t>{757.0: 0.24067164179104478}</t>
+    <t>{757.0: 0.2434881087202718}</t>
   </si>
   <si>
     <t>{746.0: 1.0}</t>
@@ -1279,7 +1279,7 @@
     <t>{756.0: 1.0}</t>
   </si>
   <si>
-    <t>{757.0: 0.7593283582089553}</t>
+    <t>{757.0: 0.7565118912797282}</t>
   </si>
   <si>
     <t>{758.0: 0.7042549992482333}</t>
@@ -1294,7 +1294,7 @@
     <t>{761.0: 1.0}</t>
   </si>
   <si>
-    <t>{141.0: 0.059558272455346666, 762.0: 0.0615630433760985}</t>
+    <t>{141.0: 0.059563655890458374, 762.0: 0.0615630433760985}</t>
   </si>
   <si>
     <t>{763.0: 1.0}</t>
@@ -1387,7 +1387,7 @@
     <t>{836.0: 1.0}</t>
   </si>
   <si>
-    <t>{837.0: 0.9440644637284658}</t>
+    <t>{837.0: 0.9425983198438288}</t>
   </si>
   <si>
     <t>{838.0: 1.0, 19.0: 0.13507462686567165}</t>
@@ -1405,7 +1405,7 @@
     <t>{842.0: 1.0}</t>
   </si>
   <si>
-    <t>{264.0: 0.18374534371825263}</t>
+    <t>{264.0: 0.18211720480633684}</t>
   </si>
   <si>
     <t>{845.0: 1.0}</t>
@@ -1423,7 +1423,7 @@
     <t>{849.0: 1.0}</t>
   </si>
   <si>
-    <t>{180.0: 0.0245231522327416, 277.0: 0.03624987585658953}</t>
+    <t>{180.0: 0.0051133317298495155, 277.0: 0.03624987585658953}</t>
   </si>
   <si>
     <t>{851.0: 1.0}</t>
@@ -1441,7 +1441,7 @@
     <t>{855.0: 1.0}</t>
   </si>
   <si>
-    <t>{146.0: 0.30546964024092466}</t>
+    <t>{146.0: 0.2650049428046886}</t>
   </si>
   <si>
     <t>{857.0: 1.0}</t>
@@ -1501,7 +1501,7 @@
     <t>{896.0: 1.0}</t>
   </si>
   <si>
-    <t>{897.0: 0.9829448214812629}</t>
+    <t>{897.0: 0.9831299982487888}</t>
   </si>
   <si>
     <t>{905.0: 1.0}</t>
@@ -1528,7 +1528,7 @@
     <t>{915.0: 1.0}</t>
   </si>
   <si>
-    <t>{534.0: 0.22372587767191515}</t>
+    <t>{534.0: 0.21235609808836542}</t>
   </si>
   <si>
     <t>{917.0: 0.84180271253553}</t>
@@ -1561,7 +1561,7 @@
     <t>{929.0: 1.0}</t>
   </si>
   <si>
-    <t>{930.0: 0.93016028215246}</t>
+    <t>{930.0: 0.9201405526273758}</t>
   </si>
   <si>
     <t>{931.0: 1.0}</t>
@@ -1582,13 +1582,13 @@
     <t>{936.0: 1.0}</t>
   </si>
   <si>
-    <t>{593.0: 0.24804456635373645}</t>
+    <t>{593.0: 0.24784505665281187}</t>
   </si>
   <si>
     <t>{910.0: 0.1834781652183478}</t>
   </si>
   <si>
-    <t>{785.0: 0.13213207501312954, 206.0: 0.1472611464968153}</t>
+    <t>{785.0: 0.1284154307396763, 206.0: 0.1472611464968153}</t>
   </si>
   <si>
     <t>{941.0: 1.0}</t>
@@ -1639,7 +1639,7 @@
     <t>{410.0: 0.2834354798085803, 729.0: 0.12623867399284688}</t>
   </si>
   <si>
-    <t>{34.0: 0.41697971450037563, 78.0: 0.13866427073974244}</t>
+    <t>{34.0: 0.41697971450037563, 78.0: 0.12802433291856768}</t>
   </si>
   <si>
     <t>{999.0: 1.0}</t>
@@ -1672,7 +1672,7 @@
     <t>{141.0: 1.0}</t>
   </si>
   <si>
-    <t>{141.0: 0.9420988600009009, 762.0: 0.05790113999909882}</t>
+    <t>{141.0: 0.9421837681943132, 762.0: 0.05781623180568697}</t>
   </si>
   <si>
     <t>{144.0: 1.0}</t>
@@ -1699,7 +1699,7 @@
     <t>{180.0: 1.0}</t>
   </si>
   <si>
-    <t>{184.0: 0.6302430932176811, 171.0: 0.15866130315356802, 593.0: 0.21109560362875085}</t>
+    <t>{184.0: 0.629983382178623, 171.0: 0.15877360106160043, 593.0: 0.21124301675977653}</t>
   </si>
   <si>
     <t>{185.0: 1.0}</t>
@@ -1708,7 +1708,7 @@
     <t>{206.0: 0.8527388535031847, 785.0: 0.1472611464968153}</t>
   </si>
   <si>
-    <t>{212.0: 0.4878850102669404, 681.0: 0.5121149897330596}</t>
+    <t>{212.0: 0.48788501026694026, 681.0: 0.5121149897330596}</t>
   </si>
   <si>
     <t>{480.0: 1.0}</t>
@@ -1723,7 +1723,7 @@
     <t>{249.0: 1.0}</t>
   </si>
   <si>
-    <t>{255.0: 0.8887904297740363, 973.0: 0.10014817456462068, 494.0: 0.011061395661342984}</t>
+    <t>{255.0: 0.8887904297740363, 973.0: 0.1001735060050665, 494.0: 0.011036064220897158}</t>
   </si>
   <si>
     <t>{265.0: 1.0}</t>
@@ -1738,13 +1738,13 @@
     <t>{276.0: 1.0}</t>
   </si>
   <si>
-    <t>{277.0: 0.9637501241434107, 180.0: 0.03624987585658953}</t>
+    <t>{277.0: 0.9637501241434101, 180.0: 0.03624987585658953}</t>
   </si>
   <si>
     <t>{289.0: 0.7035714285714286, 730.0: 0.29642857142857143}</t>
   </si>
   <si>
-    <t>{310.0: 0.8499271491015055, 887.0: 0.15007285089849443}</t>
+    <t>{310.0: 0.8503631961259079, 887.0: 0.149636803874092}</t>
   </si>
   <si>
     <t>{311.0: 0.9817357775823581, 917.0: 0.018264222417641886}</t>
@@ -1762,7 +1762,7 @@
     <t>{431.0: 1.0}</t>
   </si>
   <si>
-    <t>{476.0: 0.8458036984352775, 595.0: 0.15419630156472267}</t>
+    <t>{476.0: 0.8459132906894102, 595.0: 0.15408670931058996}</t>
   </si>
   <si>
     <t>{486.0: 0.881371991661929, 837.0: 0.11862800833807088}</t>
@@ -1777,7 +1777,7 @@
     <t>{534.0: 1.0}</t>
   </si>
   <si>
-    <t>{173.0: 0.16679169792448112, 185.0: 0.16654163540885222, 404.0: 0.16654163540885222, 930.0: 0.5001250312578145}</t>
+    <t>{173.0: 0.16679169792448112, 185.0: 0.16654163540885225, 404.0: 0.16654163540885225, 930.0: 0.5001250312578145}</t>
   </si>
   <si>
     <t>{542.0: 1.0}</t>
@@ -1789,7 +1789,7 @@
     <t>{545.0: 1.0}</t>
   </si>
   <si>
-    <t>{564.0: 0.9223519621587967, 565.0: 0.07764803784120333}</t>
+    <t>{564.0: 0.9246077855267295, 565.0: 0.07539221447327048}</t>
   </si>
   <si>
     <t>{565.0: 1.0}</t>
@@ -1804,10 +1804,10 @@
     <t>{593.0: 1.0}</t>
   </si>
   <si>
-    <t>{603.0: 0.8623827909542195, 617.0: 0.13761720904578048}</t>
-  </si>
-  <si>
-    <t>{604.0: 0.8182233178124716, 837.0: 0.18177668218752854}</t>
+    <t>{603.0: 0.8619640387275243, 617.0: 0.1380359612724758}</t>
+  </si>
+  <si>
+    <t>{604.0: 0.8183062602664719, 837.0: 0.18169373973352795}</t>
   </si>
   <si>
     <t>{615.0: 1.0}</t>
@@ -1831,7 +1831,7 @@
     <t>{615.0: 0.5922794117647059, 698.0: 0.11176470588235295, 751.0: 0.2959558823529412}</t>
   </si>
   <si>
-    <t>{687.0: 0.7078576225654801, 534.0: 0.2921423774345198}</t>
+    <t>{687.0: 0.7092245989304813, 534.0: 0.29077540106951866}</t>
   </si>
   <si>
     <t>{698.0: 1.0}</t>
@@ -1861,10 +1861,10 @@
     <t>{751.0: 1.0}</t>
   </si>
   <si>
-    <t>{754.0: 0.9200087710787179, 917.0: 0.07999122892128212}</t>
-  </si>
-  <si>
-    <t>{141.0: 0.9420988600009012, 762.0: 0.05790113999909883}</t>
+    <t>{754.0: 0.8492529563266303, 917.0: 0.15074704367336975}</t>
+  </si>
+  <si>
+    <t>{141.0: 0.9421837681943133, 762.0: 0.057816231805686985}</t>
   </si>
   <si>
     <t>{780.0: 1.0}</t>
@@ -1879,7 +1879,7 @@
     <t>{838.0: 0.9103516592372461, 19.0: 0.08964834076275384}</t>
   </si>
   <si>
-    <t>{180.0: 0.5597104945717732, 277.0: 0.44028950542822676}</t>
+    <t>{180.0: 0.1391509433962264, 277.0: 0.8608490566037735}</t>
   </si>
   <si>
     <t>{854.0: 0.8732737611697807, 976.0: 0.12672623883021933}</t>
@@ -1900,19 +1900,19 @@
     <t>{930.0: 1.0}</t>
   </si>
   <si>
-    <t>{249.0: 0.38879551820728286, 702.0: 0.6112044817927171}</t>
-  </si>
-  <si>
-    <t>{785.0: 0.5122362869198313, 206.0: 0.4877637130801688}</t>
-  </si>
-  <si>
-    <t>{973.0: 0.9005355776587602, 494.0: 0.09946442234123948}</t>
+    <t>{249.0: 0.38879551820728303, 702.0: 0.6112044817927171}</t>
+  </si>
+  <si>
+    <t>{785.0: 0.4978279756733276, 206.0: 0.5021720243266724}</t>
+  </si>
+  <si>
+    <t>{973.0: 0.9007633587786258, 494.0: 0.09923664122137404}</t>
   </si>
   <si>
     <t>{976.0: 1.0}</t>
   </si>
   <si>
-    <t>{981.0: 0.5954814416352878, 431.0: 0.40451855836471223}</t>
+    <t>{981.0: 0.711987744159326, 431.0: 0.288012255840674}</t>
   </si>
   <si>
     <t>{410.0: 0.6950792670372656, 729.0: 0.3049207329627342}</t>
@@ -3901,7 +3901,7 @@
     </row>
     <row r="148" spans="1:3">
       <c r="A148">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B148" t="s">
         <v>149</v>
@@ -3912,7 +3912,7 @@
     </row>
     <row r="149" spans="1:3">
       <c r="A149">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B149" t="s">
         <v>150</v>
@@ -3923,7 +3923,7 @@
     </row>
     <row r="150" spans="1:3">
       <c r="A150">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B150" t="s">
         <v>151</v>
@@ -3934,7 +3934,7 @@
     </row>
     <row r="151" spans="1:3">
       <c r="A151">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B151" t="s">
         <v>152</v>
@@ -3945,7 +3945,7 @@
     </row>
     <row r="152" spans="1:3">
       <c r="A152">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B152" t="s">
         <v>153</v>
@@ -3956,29 +3956,29 @@
     </row>
     <row r="153" spans="1:3">
       <c r="A153">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B153" t="s">
         <v>154</v>
       </c>
       <c r="C153" t="s">
-        <v>568</v>
+        <v>154</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B154" t="s">
         <v>155</v>
       </c>
       <c r="C154" t="s">
-        <v>155</v>
+        <v>568</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B155" t="s">
         <v>156</v>
@@ -3989,7 +3989,7 @@
     </row>
     <row r="156" spans="1:3">
       <c r="A156">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B156" t="s">
         <v>157</v>
@@ -4000,7 +4000,7 @@
     </row>
     <row r="157" spans="1:3">
       <c r="A157">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B157" t="s">
         <v>158</v>
@@ -4011,40 +4011,40 @@
     </row>
     <row r="158" spans="1:3">
       <c r="A158">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B158" t="s">
         <v>159</v>
       </c>
       <c r="C158" t="s">
-        <v>569</v>
+        <v>159</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B159" t="s">
         <v>160</v>
       </c>
       <c r="C159" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B160" t="s">
         <v>161</v>
       </c>
       <c r="C160" t="s">
-        <v>161</v>
+        <v>570</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B161" t="s">
         <v>162</v>
@@ -4055,7 +4055,7 @@
     </row>
     <row r="162" spans="1:3">
       <c r="A162">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B162" t="s">
         <v>163</v>
@@ -4066,7 +4066,7 @@
     </row>
     <row r="163" spans="1:3">
       <c r="A163">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B163" t="s">
         <v>164</v>
@@ -4077,7 +4077,7 @@
     </row>
     <row r="164" spans="1:3">
       <c r="A164">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B164" t="s">
         <v>165</v>
@@ -4088,7 +4088,7 @@
     </row>
     <row r="165" spans="1:3">
       <c r="A165">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B165" t="s">
         <v>166</v>
@@ -4099,7 +4099,7 @@
     </row>
     <row r="166" spans="1:3">
       <c r="A166">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B166" t="s">
         <v>167</v>
@@ -4110,51 +4110,51 @@
     </row>
     <row r="167" spans="1:3">
       <c r="A167">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B167" t="s">
         <v>168</v>
       </c>
       <c r="C167" t="s">
-        <v>571</v>
+        <v>168</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B168" t="s">
         <v>169</v>
       </c>
       <c r="C168" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B169" t="s">
         <v>170</v>
       </c>
       <c r="C169" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="170" spans="1:3">
       <c r="A170">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B170" t="s">
         <v>171</v>
       </c>
       <c r="C170" t="s">
-        <v>171</v>
+        <v>572</v>
       </c>
     </row>
     <row r="171" spans="1:3">
       <c r="A171">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B171" t="s">
         <v>172</v>
@@ -4165,7 +4165,7 @@
     </row>
     <row r="172" spans="1:3">
       <c r="A172">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B172" t="s">
         <v>173</v>
@@ -4176,7 +4176,7 @@
     </row>
     <row r="173" spans="1:3">
       <c r="A173">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B173" t="s">
         <v>174</v>
@@ -4187,7 +4187,7 @@
     </row>
     <row r="174" spans="1:3">
       <c r="A174">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B174" t="s">
         <v>175</v>
@@ -4198,40 +4198,40 @@
     </row>
     <row r="175" spans="1:3">
       <c r="A175">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B175" t="s">
         <v>176</v>
       </c>
       <c r="C175" t="s">
-        <v>573</v>
+        <v>176</v>
       </c>
     </row>
     <row r="176" spans="1:3">
       <c r="A176">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B176" t="s">
         <v>177</v>
       </c>
       <c r="C176" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="177" spans="1:3">
       <c r="A177">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B177" t="s">
         <v>178</v>
       </c>
       <c r="C177" t="s">
-        <v>178</v>
+        <v>574</v>
       </c>
     </row>
     <row r="178" spans="1:3">
       <c r="A178">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B178" t="s">
         <v>179</v>
@@ -4242,7 +4242,7 @@
     </row>
     <row r="179" spans="1:3">
       <c r="A179">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B179" t="s">
         <v>180</v>
@@ -4253,7 +4253,7 @@
     </row>
     <row r="180" spans="1:3">
       <c r="A180">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B180" t="s">
         <v>181</v>
@@ -4264,7 +4264,7 @@
     </row>
     <row r="181" spans="1:3">
       <c r="A181">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B181" t="s">
         <v>182</v>
@@ -4275,7 +4275,7 @@
     </row>
     <row r="182" spans="1:3">
       <c r="A182">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B182" t="s">
         <v>183</v>
@@ -4286,7 +4286,7 @@
     </row>
     <row r="183" spans="1:3">
       <c r="A183">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B183" t="s">
         <v>184</v>
@@ -4297,7 +4297,7 @@
     </row>
     <row r="184" spans="1:3">
       <c r="A184">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B184" t="s">
         <v>185</v>
@@ -4308,7 +4308,7 @@
     </row>
     <row r="185" spans="1:3">
       <c r="A185">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B185" t="s">
         <v>186</v>
@@ -4319,29 +4319,29 @@
     </row>
     <row r="186" spans="1:3">
       <c r="A186">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B186" t="s">
         <v>187</v>
       </c>
       <c r="C186" t="s">
-        <v>575</v>
+        <v>187</v>
       </c>
     </row>
     <row r="187" spans="1:3">
       <c r="A187">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B187" t="s">
         <v>188</v>
       </c>
       <c r="C187" t="s">
-        <v>188</v>
+        <v>575</v>
       </c>
     </row>
     <row r="188" spans="1:3">
       <c r="A188">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B188" t="s">
         <v>189</v>
@@ -4352,7 +4352,7 @@
     </row>
     <row r="189" spans="1:3">
       <c r="A189">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B189" t="s">
         <v>190</v>
@@ -4363,7 +4363,7 @@
     </row>
     <row r="190" spans="1:3">
       <c r="A190">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B190" t="s">
         <v>191</v>
@@ -4374,7 +4374,7 @@
     </row>
     <row r="191" spans="1:3">
       <c r="A191">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B191" t="s">
         <v>192</v>
@@ -4385,7 +4385,7 @@
     </row>
     <row r="192" spans="1:3">
       <c r="A192">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B192" t="s">
         <v>193</v>
@@ -4396,7 +4396,7 @@
     </row>
     <row r="193" spans="1:3">
       <c r="A193">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B193" t="s">
         <v>194</v>
@@ -4407,7 +4407,7 @@
     </row>
     <row r="194" spans="1:3">
       <c r="A194">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B194" t="s">
         <v>195</v>
@@ -4418,7 +4418,7 @@
     </row>
     <row r="195" spans="1:3">
       <c r="A195">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B195" t="s">
         <v>196</v>
@@ -4429,7 +4429,7 @@
     </row>
     <row r="196" spans="1:3">
       <c r="A196">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B196" t="s">
         <v>197</v>
@@ -4440,7 +4440,7 @@
     </row>
     <row r="197" spans="1:3">
       <c r="A197">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B197" t="s">
         <v>198</v>
@@ -4451,7 +4451,7 @@
     </row>
     <row r="198" spans="1:3">
       <c r="A198">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B198" t="s">
         <v>199</v>
@@ -4462,7 +4462,7 @@
     </row>
     <row r="199" spans="1:3">
       <c r="A199">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B199" t="s">
         <v>200</v>
@@ -4473,7 +4473,7 @@
     </row>
     <row r="200" spans="1:3">
       <c r="A200">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B200" t="s">
         <v>201</v>
@@ -4484,7 +4484,7 @@
     </row>
     <row r="201" spans="1:3">
       <c r="A201">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B201" t="s">
         <v>202</v>
@@ -4495,7 +4495,7 @@
     </row>
     <row r="202" spans="1:3">
       <c r="A202">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B202" t="s">
         <v>203</v>
@@ -4506,7 +4506,7 @@
     </row>
     <row r="203" spans="1:3">
       <c r="A203">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B203" t="s">
         <v>204</v>
@@ -4517,7 +4517,7 @@
     </row>
     <row r="204" spans="1:3">
       <c r="A204">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B204" t="s">
         <v>205</v>
@@ -4528,40 +4528,40 @@
     </row>
     <row r="205" spans="1:3">
       <c r="A205">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B205" t="s">
         <v>206</v>
       </c>
       <c r="C205" t="s">
-        <v>576</v>
+        <v>206</v>
       </c>
     </row>
     <row r="206" spans="1:3">
       <c r="A206">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B206" t="s">
         <v>207</v>
       </c>
       <c r="C206" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="207" spans="1:3">
       <c r="A207">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B207" t="s">
         <v>208</v>
       </c>
       <c r="C207" t="s">
-        <v>208</v>
+        <v>577</v>
       </c>
     </row>
     <row r="208" spans="1:3">
       <c r="A208">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B208" t="s">
         <v>209</v>
@@ -4572,7 +4572,7 @@
     </row>
     <row r="209" spans="1:3">
       <c r="A209">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B209" t="s">
         <v>210</v>
@@ -4583,7 +4583,7 @@
     </row>
     <row r="210" spans="1:3">
       <c r="A210">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B210" t="s">
         <v>211</v>
@@ -4594,7 +4594,7 @@
     </row>
     <row r="211" spans="1:3">
       <c r="A211">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B211" t="s">
         <v>212</v>
@@ -4605,7 +4605,7 @@
     </row>
     <row r="212" spans="1:3">
       <c r="A212">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B212" t="s">
         <v>213</v>
@@ -4616,7 +4616,7 @@
     </row>
     <row r="213" spans="1:3">
       <c r="A213">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B213" t="s">
         <v>214</v>
@@ -4627,7 +4627,7 @@
     </row>
     <row r="214" spans="1:3">
       <c r="A214">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B214" t="s">
         <v>215</v>
